--- a/results/mp/logistic/corona/confidence/42/topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,178 +40,205 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
   <si>
     <t>.</t>
@@ -572,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,7 +607,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>36</v>
@@ -641,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7123287671232876</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8928571428571429</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5277777777777778</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.8328981723237598</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>319</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>319</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,16 +989,16 @@
         <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.7948717948717948</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,31 +1036,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L10">
+        <v>66</v>
+      </c>
+      <c r="M10">
+        <v>66</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>16</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L10">
-        <v>46</v>
-      </c>
-      <c r="M10">
-        <v>46</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4594594594594595</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>306</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>306</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.455026455026455</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C12">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L12">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="M12">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1162,28 +1189,28 @@
         <v>344</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>28</v>
-      </c>
-      <c r="M13">
-        <v>28</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3333333333333333</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.7746478873239436</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3050847457627119</v>
+        <v>0.28</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2533333333333334</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7578125</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2363636363636364</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.7547169811320755</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L17">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1879194630872483</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>121</v>
+        <v>328</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1441,37 +1468,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1222222222222222</v>
+        <v>0.006545114539504441</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>316</v>
+        <v>2125</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,37 +1518,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006313131313131313</v>
+        <v>0.006121134020618557</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="F20">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2361</v>
+        <v>3085</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,37 +1568,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003300970873786408</v>
+        <v>0.005897219882055603</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E21">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
       <c r="F21">
-        <v>0.53</v>
+        <v>0.74</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>5133</v>
+        <v>2360</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.74375</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,37 +1618,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003014842300556586</v>
+        <v>0.005635023840485479</v>
       </c>
       <c r="C22">
         <v>13</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>0.55</v>
+        <v>0.13</v>
       </c>
       <c r="F22">
-        <v>0.45</v>
+        <v>0.87</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>4299</v>
+        <v>2294</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.6744186046511628</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1633,47 +1660,71 @@
         <v>0</v>
       </c>
       <c r="Q22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.002913187026607108</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>0.52</v>
+      </c>
+      <c r="F23">
+        <v>0.48</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>5134</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>33</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.6296296296296297</v>
-      </c>
-      <c r="L23">
-        <v>17</v>
-      </c>
-      <c r="M23">
-        <v>17</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>0.6235294117647059</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L24">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1685,21 +1736,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.5909090909090909</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1711,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.5851063829787234</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L26">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1737,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.58</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1763,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>0.5774058577405857</v>
+        <v>0.65</v>
       </c>
       <c r="L28">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1789,21 +1840,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.5525423728813559</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L29">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1815,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>132</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.5384615384615384</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1841,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.5285714285714286</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1867,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.4857142857142857</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1893,15 +1944,15 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.4642857142857143</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L33">
         <v>13</v>
@@ -1919,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.4382022471910113</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1945,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.425</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1971,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>0.2745098039215687</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1997,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K37">
-        <v>0.2602739726027397</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2023,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>0.01083333333333333</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2049,110 +2100,292 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1187</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K39">
-        <v>0.005999250093738283</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L39">
         <v>16</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N39">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>2651</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="K40">
-        <v>0.003707995365005794</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>4299</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="K41">
-        <v>0.002913752913752914</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N41">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>5133</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K42">
-        <v>0.002607823470411234</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42">
+        <v>18</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="L43">
+        <v>22</v>
+      </c>
+      <c r="M43">
+        <v>22</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44">
+        <v>0.2465753424657534</v>
+      </c>
+      <c r="L44">
+        <v>18</v>
+      </c>
+      <c r="M44">
+        <v>18</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45">
+        <v>0.01168614357262104</v>
+      </c>
+      <c r="L45">
+        <v>14</v>
+      </c>
+      <c r="M45">
+        <v>16</v>
+      </c>
+      <c r="N45">
+        <v>0.88</v>
+      </c>
+      <c r="O45">
+        <v>0.12</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46">
+        <v>0.005622188905547227</v>
+      </c>
+      <c r="L46">
+        <v>15</v>
+      </c>
+      <c r="M46">
+        <v>20</v>
+      </c>
+      <c r="N46">
+        <v>0.75</v>
+      </c>
+      <c r="O46">
+        <v>0.25</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47">
+        <v>0.003935185185185185</v>
+      </c>
+      <c r="L47">
+        <v>17</v>
+      </c>
+      <c r="M47">
+        <v>25</v>
+      </c>
+      <c r="N47">
+        <v>0.68</v>
+      </c>
+      <c r="O47">
+        <v>0.32</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48">
+        <v>0.003106796116504855</v>
+      </c>
+      <c r="L48">
+        <v>16</v>
+      </c>
+      <c r="M48">
+        <v>31</v>
+      </c>
+      <c r="N48">
+        <v>0.52</v>
+      </c>
+      <c r="O48">
+        <v>0.48</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>5134</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49">
+        <v>0.002807862013638187</v>
+      </c>
+      <c r="L49">
+        <v>14</v>
+      </c>
+      <c r="M49">
         <v>24</v>
       </c>
-      <c r="N42">
-        <v>0.54</v>
-      </c>
-      <c r="O42">
-        <v>0.46</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
+      <c r="N49">
+        <v>0.58</v>
+      </c>
+      <c r="O49">
+        <v>0.42</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
         <v>4972</v>
       </c>
     </row>
